--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.294352522144792</v>
+        <v>0.317263</v>
       </c>
       <c r="N2">
-        <v>0.294352522144792</v>
+        <v>0.634526</v>
       </c>
       <c r="O2">
-        <v>0.002545680356091186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P2">
-        <v>0.002545680356091186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q2">
-        <v>42.65246280842576</v>
+        <v>46.00377650578601</v>
       </c>
       <c r="R2">
-        <v>42.65246280842576</v>
+        <v>184.015106023144</v>
       </c>
       <c r="S2">
-        <v>0.0006251658710896062</v>
+        <v>0.0006148669504921644</v>
       </c>
       <c r="T2">
-        <v>0.0006251658710896062</v>
+        <v>0.000303701416284097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>42.976043056057</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N3">
-        <v>42.976043056057</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O3">
-        <v>0.3716743032917443</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P3">
-        <v>0.3716743032917443</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q3">
-        <v>6227.34286339869</v>
+        <v>4.121875811379334</v>
       </c>
       <c r="R3">
-        <v>6227.34286339869</v>
+        <v>24.731254868276</v>
       </c>
       <c r="S3">
-        <v>0.09127543802702101</v>
+        <v>5.509124256638949E-05</v>
       </c>
       <c r="T3">
-        <v>0.09127543802702101</v>
+        <v>4.081685081350726E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>70.4144540386251</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N4">
-        <v>70.4144540386251</v>
+        <v>148.173461</v>
       </c>
       <c r="O4">
-        <v>0.6089728435988707</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P4">
-        <v>0.6089728435988707</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q4">
-        <v>10203.24154240035</v>
+        <v>7161.817150579381</v>
       </c>
       <c r="R4">
-        <v>10203.24154240035</v>
+        <v>42970.90290347628</v>
       </c>
       <c r="S4">
-        <v>0.149550998155546</v>
+        <v>0.09572180820427598</v>
       </c>
       <c r="T4">
-        <v>0.149550998155546</v>
+        <v>0.07091985192319369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.570626390767208</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N5">
-        <v>0.570626390767208</v>
+        <v>212.597199</v>
       </c>
       <c r="O5">
-        <v>0.004935009162003186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P5">
-        <v>0.004935009162003186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q5">
-        <v>82.6852806708155</v>
+        <v>10275.67457551213</v>
       </c>
       <c r="R5">
-        <v>82.6852806708155</v>
+        <v>61654.04745307277</v>
       </c>
       <c r="S5">
-        <v>0.001211935070409287</v>
+        <v>0.1373403048704133</v>
       </c>
       <c r="T5">
-        <v>0.001211935070409287</v>
+        <v>0.1017548066341364</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.3727573016189</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N6">
-        <v>1.3727573016189</v>
+        <v>1.841336</v>
       </c>
       <c r="O6">
-        <v>0.01187216359129066</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P6">
-        <v>0.01187216359129066</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q6">
-        <v>198.9161816099322</v>
+        <v>88.99914772713068</v>
       </c>
       <c r="R6">
-        <v>198.9161816099322</v>
+        <v>533.9948863627841</v>
       </c>
       <c r="S6">
-        <v>0.002915555158175433</v>
+        <v>0.001189524832868882</v>
       </c>
       <c r="T6">
-        <v>0.002915555158175433</v>
+        <v>0.0008813135333381045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>283.78659238818</v>
+        <v>145.002022</v>
       </c>
       <c r="H7">
-        <v>283.78659238818</v>
+        <v>290.004044</v>
       </c>
       <c r="I7">
-        <v>0.4809577324997687</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J7">
-        <v>0.4809577324997687</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.294352522144792</v>
+        <v>1.3859455</v>
       </c>
       <c r="N7">
-        <v>0.294352522144792</v>
+        <v>2.771891</v>
       </c>
       <c r="O7">
-        <v>0.002545680356091186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P7">
-        <v>0.002545680356091186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q7">
-        <v>83.53329922033681</v>
+        <v>200.964899881801</v>
       </c>
       <c r="R7">
-        <v>83.53329922033681</v>
+        <v>803.8595995272041</v>
       </c>
       <c r="S7">
-        <v>0.001224364651734821</v>
+        <v>0.002686011552350378</v>
       </c>
       <c r="T7">
-        <v>0.001224364651734821</v>
+        <v>0.001326702487345108</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>42.976043056057</v>
+        <v>0.317263</v>
       </c>
       <c r="N8">
-        <v>42.976043056057</v>
+        <v>0.634526</v>
       </c>
       <c r="O8">
-        <v>0.3716743032917443</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P8">
-        <v>0.3716743032917443</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q8">
-        <v>12196.02481320612</v>
+        <v>93.90167625690903</v>
       </c>
       <c r="R8">
-        <v>12196.02481320612</v>
+        <v>563.4100575414541</v>
       </c>
       <c r="S8">
-        <v>0.1787596301396287</v>
+        <v>0.001255049948321665</v>
       </c>
       <c r="T8">
-        <v>0.1787596301396287</v>
+        <v>0.0009298607930727355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>70.4144540386251</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N9">
-        <v>70.4144540386251</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O9">
-        <v>0.6089728435988707</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P9">
-        <v>0.6089728435988707</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q9">
-        <v>19982.67796649554</v>
+        <v>8.413462489599</v>
       </c>
       <c r="R9">
-        <v>19982.67796649554</v>
+        <v>75.721162406391</v>
       </c>
       <c r="S9">
-        <v>0.2928901980112492</v>
+        <v>0.0001124507685452587</v>
       </c>
       <c r="T9">
-        <v>0.2928901980112492</v>
+        <v>0.000124971393721376</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.570626390767208</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N10">
-        <v>0.570626390767208</v>
+        <v>148.173461</v>
       </c>
       <c r="O10">
-        <v>0.004935009162003186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P10">
-        <v>0.004935009162003186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q10">
-        <v>161.936118962592</v>
+        <v>14618.50931738834</v>
       </c>
       <c r="R10">
-        <v>161.936118962592</v>
+        <v>131566.5838564951</v>
       </c>
       <c r="S10">
-        <v>0.002373530816422636</v>
+        <v>0.1953847907158962</v>
       </c>
       <c r="T10">
-        <v>0.002373530816422636</v>
+        <v>0.2171395529226415</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.3727573016189</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N11">
-        <v>1.3727573016189</v>
+        <v>212.597199</v>
       </c>
       <c r="O11">
-        <v>0.01187216359129066</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P11">
-        <v>0.01187216359129066</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q11">
-        <v>389.5701168024207</v>
+        <v>20974.43167931513</v>
       </c>
       <c r="R11">
-        <v>389.5701168024207</v>
+        <v>188769.8851138361</v>
       </c>
       <c r="S11">
-        <v>0.005710008880733465</v>
+        <v>0.2803353512367559</v>
       </c>
       <c r="T11">
-        <v>0.005710008880733465</v>
+        <v>0.3115487782489325</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H12">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I12">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J12">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.294352522144792</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N12">
-        <v>0.294352522144792</v>
+        <v>1.841336</v>
       </c>
       <c r="O12">
-        <v>0.002545680356091186</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P12">
-        <v>0.002545680356091186</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q12">
-        <v>0.2070951911254546</v>
+        <v>181.662676236216</v>
       </c>
       <c r="R12">
-        <v>0.2070951911254546</v>
+        <v>1634.964086125944</v>
       </c>
       <c r="S12">
-        <v>3.035436573496934E-06</v>
+        <v>0.002428026223924442</v>
       </c>
       <c r="T12">
-        <v>3.035436573496934E-06</v>
+        <v>0.002698370363505008</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7035618027542651</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H13">
-        <v>0.7035618027542651</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I13">
-        <v>0.001192387161347214</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J13">
-        <v>0.001192387161347214</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>42.976043056057</v>
+        <v>1.3859455</v>
       </c>
       <c r="N13">
-        <v>42.976043056057</v>
+        <v>2.771891</v>
       </c>
       <c r="O13">
-        <v>0.3716743032917443</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P13">
-        <v>0.3716743032917443</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q13">
-        <v>30.23630232776438</v>
+        <v>410.2041702017566</v>
       </c>
       <c r="R13">
-        <v>30.23630232776438</v>
+        <v>2461.22502121054</v>
       </c>
       <c r="S13">
-        <v>0.0004431796674477465</v>
+        <v>0.005482614827923973</v>
       </c>
       <c r="T13">
-        <v>0.0004431796674477465</v>
+        <v>0.004062044366300479</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>70.4144540386251</v>
+        <v>0.317263</v>
       </c>
       <c r="N14">
-        <v>70.4144540386251</v>
+        <v>0.634526</v>
       </c>
       <c r="O14">
-        <v>0.6089728435988707</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P14">
-        <v>0.6089728435988707</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q14">
-        <v>49.54092022337241</v>
+        <v>0.05735840078733333</v>
       </c>
       <c r="R14">
-        <v>49.54092022337241</v>
+        <v>0.344150404724</v>
       </c>
       <c r="S14">
-        <v>0.0007261314003163984</v>
+        <v>7.666280391736816E-07</v>
       </c>
       <c r="T14">
-        <v>0.0007261314003163984</v>
+        <v>5.67991224135036E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.570626390767208</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N15">
-        <v>0.570626390767208</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O15">
-        <v>0.004935009162003186</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P15">
-        <v>0.004935009162003186</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q15">
-        <v>0.4014709321873366</v>
+        <v>0.00513923470511111</v>
       </c>
       <c r="R15">
-        <v>0.4014709321873366</v>
+        <v>0.046253112346</v>
       </c>
       <c r="S15">
-        <v>5.884441565903472E-06</v>
+        <v>6.868882972244099E-08</v>
       </c>
       <c r="T15">
-        <v>5.884441565903472E-06</v>
+        <v>7.63368618512271E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.3727573016189</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N16">
-        <v>1.3727573016189</v>
+        <v>148.173461</v>
       </c>
       <c r="O16">
-        <v>0.01187216359129066</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P16">
-        <v>0.01187216359129066</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q16">
-        <v>0.9658196018710737</v>
+        <v>8.929492526268222</v>
       </c>
       <c r="R16">
-        <v>0.9658196018710737</v>
+        <v>80.36543273641399</v>
       </c>
       <c r="S16">
-        <v>1.415621544366881E-05</v>
+        <v>0.0001193478069866409</v>
       </c>
       <c r="T16">
-        <v>1.415621544366881E-05</v>
+        <v>0.0001326363702948579</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H17">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I17">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J17">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.294352522144792</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N17">
-        <v>0.294352522144792</v>
+        <v>212.597199</v>
       </c>
       <c r="O17">
-        <v>0.002545680356091186</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P17">
-        <v>0.002545680356091186</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q17">
-        <v>38.56280355091074</v>
+        <v>12.811910356714</v>
       </c>
       <c r="R17">
-        <v>38.56280355091074</v>
+        <v>115.307193210426</v>
       </c>
       <c r="S17">
-        <v>0.0005652228988943645</v>
+        <v>0.0001712385558177149</v>
       </c>
       <c r="T17">
-        <v>0.0005652228988943645</v>
+        <v>0.0001903047996578388</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H18">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I18">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J18">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>42.976043056057</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N18">
-        <v>42.976043056057</v>
+        <v>1.841336</v>
       </c>
       <c r="O18">
-        <v>0.3716743032917443</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P18">
-        <v>0.3716743032917443</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q18">
-        <v>5630.244625357732</v>
+        <v>0.1109658635182222</v>
       </c>
       <c r="R18">
-        <v>5630.244625357732</v>
+        <v>0.9986927716640001</v>
       </c>
       <c r="S18">
-        <v>0.08252364702757599</v>
+        <v>1.483122632369055E-06</v>
       </c>
       <c r="T18">
-        <v>0.08252364702757599</v>
+        <v>1.648258209567316E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>131.008911593228</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H19">
-        <v>131.008911593228</v>
+        <v>0.542374</v>
       </c>
       <c r="I19">
-        <v>0.2220321563710563</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J19">
-        <v>0.2220321563710563</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>70.4144540386251</v>
+        <v>1.3859455</v>
       </c>
       <c r="N19">
-        <v>70.4144540386251</v>
+        <v>2.771891</v>
       </c>
       <c r="O19">
-        <v>0.6089728435988707</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P19">
-        <v>0.6089728435988707</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q19">
-        <v>9224.920984031651</v>
+        <v>0.2505669348723333</v>
       </c>
       <c r="R19">
-        <v>9224.920984031651</v>
+        <v>1.503401609234</v>
       </c>
       <c r="S19">
-        <v>0.1352115536356713</v>
+        <v>3.348971298470316E-06</v>
       </c>
       <c r="T19">
-        <v>0.1352115536356713</v>
+        <v>2.481237588781057E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.570626390767208</v>
+        <v>0.317263</v>
       </c>
       <c r="N20">
-        <v>0.570626390767208</v>
+        <v>0.634526</v>
       </c>
       <c r="O20">
-        <v>0.004935009162003186</v>
+        <v>0.002587741009497455</v>
       </c>
       <c r="P20">
-        <v>0.004935009162003186</v>
+        <v>0.001733186563985812</v>
       </c>
       <c r="Q20">
-        <v>74.75714238078392</v>
+        <v>0.234385021036</v>
       </c>
       <c r="R20">
-        <v>74.75714238078392</v>
+        <v>1.406310126216</v>
       </c>
       <c r="S20">
-        <v>0.001095730725950487</v>
+        <v>3.132690706540611E-06</v>
       </c>
       <c r="T20">
-        <v>0.001095730725950487</v>
+        <v>2.320996282841851E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>1.3727573016189</v>
+        <v>0.02842633333333333</v>
       </c>
       <c r="N21">
-        <v>1.3727573016189</v>
+        <v>0.08527899999999999</v>
       </c>
       <c r="O21">
-        <v>0.01187216359129066</v>
+        <v>0.0002318580752130288</v>
       </c>
       <c r="P21">
-        <v>0.01187216359129066</v>
+        <v>0.0002329367385893503</v>
       </c>
       <c r="Q21">
-        <v>179.8434399667487</v>
+        <v>0.02100057912933333</v>
       </c>
       <c r="R21">
-        <v>179.8434399667487</v>
+        <v>0.189005212164</v>
       </c>
       <c r="S21">
-        <v>0.002636002082964209</v>
+        <v>2.806848269554247E-07</v>
       </c>
       <c r="T21">
-        <v>0.002636002082964209</v>
+        <v>3.119371657023829E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H22">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I22">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J22">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.294352522144792</v>
+        <v>49.39115366666666</v>
       </c>
       <c r="N22">
-        <v>0.294352522144792</v>
+        <v>148.173461</v>
       </c>
       <c r="O22">
-        <v>0.002545680356091186</v>
+        <v>0.4028566641859401</v>
       </c>
       <c r="P22">
-        <v>0.002545680356091186</v>
+        <v>0.4047308569616938</v>
       </c>
       <c r="Q22">
-        <v>8.725504071221888</v>
+        <v>36.48880137663066</v>
       </c>
       <c r="R22">
-        <v>8.725504071221888</v>
+        <v>328.3992123896759</v>
       </c>
       <c r="S22">
-        <v>0.0001278914977988974</v>
+        <v>0.0004876938315431862</v>
       </c>
       <c r="T22">
-        <v>0.0001278914977988974</v>
+        <v>0.0005419952093323393</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H23">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I23">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J23">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>42.976043056057</v>
+        <v>70.86573300000001</v>
       </c>
       <c r="N23">
-        <v>42.976043056057</v>
+        <v>212.597199</v>
       </c>
       <c r="O23">
-        <v>0.3716743032917443</v>
+        <v>0.5780130789036135</v>
       </c>
       <c r="P23">
-        <v>0.3716743032917443</v>
+        <v>0.5807021443531359</v>
       </c>
       <c r="Q23">
-        <v>1273.940633898072</v>
+        <v>52.353619299876</v>
       </c>
       <c r="R23">
-        <v>1273.940633898072</v>
+        <v>471.182573698884</v>
       </c>
       <c r="S23">
-        <v>0.01867240843007086</v>
+        <v>0.0006997362540897878</v>
       </c>
       <c r="T23">
-        <v>0.01867240843007086</v>
+        <v>0.0007776471076387561</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H24">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I24">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J24">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>70.4144540386251</v>
+        <v>0.6137786666666667</v>
       </c>
       <c r="N24">
-        <v>70.4144540386251</v>
+        <v>1.841336</v>
       </c>
       <c r="O24">
-        <v>0.6089728435988707</v>
+        <v>0.005006257352694774</v>
       </c>
       <c r="P24">
-        <v>0.6089728435988707</v>
+        <v>0.005029547749002215</v>
       </c>
       <c r="Q24">
-        <v>2087.298593231233</v>
+        <v>0.4534424931306667</v>
       </c>
       <c r="R24">
-        <v>2087.298593231233</v>
+        <v>4.080982438176</v>
       </c>
       <c r="S24">
-        <v>0.03059396239608785</v>
+        <v>6.060519899703257E-06</v>
       </c>
       <c r="T24">
-        <v>0.03059396239608785</v>
+        <v>6.735317404586862E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.6430416415111</v>
+        <v>0.738772</v>
       </c>
       <c r="H25">
-        <v>29.6430416415111</v>
+        <v>2.216316</v>
       </c>
       <c r="I25">
-        <v>0.05023863168558636</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J25">
-        <v>0.05023863168558636</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.570626390767208</v>
+        <v>1.3859455</v>
       </c>
       <c r="N25">
-        <v>0.570626390767208</v>
+        <v>2.771891</v>
       </c>
       <c r="O25">
-        <v>0.004935009162003186</v>
+        <v>0.01130440047304115</v>
       </c>
       <c r="P25">
-        <v>0.004935009162003186</v>
+        <v>0.007571327633592945</v>
       </c>
       <c r="Q25">
-        <v>16.91510186325753</v>
+        <v>1.023897728926</v>
       </c>
       <c r="R25">
-        <v>16.91510186325753</v>
+        <v>6.143386373556</v>
       </c>
       <c r="S25">
-        <v>0.0002479281076548722</v>
+        <v>1.368498245185156E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002479281076548722</v>
+        <v>1.013914119743365E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H26">
+        <v>412.820641</v>
+      </c>
+      <c r="I26">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J26">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.317263</v>
+      </c>
+      <c r="N26">
+        <v>0.634526</v>
+      </c>
+      <c r="O26">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P26">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q26">
+        <v>43.65757167519433</v>
+      </c>
+      <c r="R26">
+        <v>261.945430051166</v>
+      </c>
+      <c r="S26">
+        <v>0.0005835085725721593</v>
+      </c>
+      <c r="T26">
+        <v>0.0004323188449848263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H27">
+        <v>412.820641</v>
+      </c>
+      <c r="I27">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J27">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O27">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P27">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q27">
+        <v>3.911659049315444</v>
+      </c>
+      <c r="R27">
+        <v>35.20493144383899</v>
+      </c>
+      <c r="S27">
+        <v>5.228157455106244E-05</v>
+      </c>
+      <c r="T27">
+        <v>5.810277085802788E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H28">
+        <v>412.820641</v>
+      </c>
+      <c r="I28">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J28">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N28">
+        <v>148.173461</v>
+      </c>
+      <c r="O28">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P28">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q28">
+        <v>6796.562572134277</v>
+      </c>
+      <c r="R28">
+        <v>61169.06314920849</v>
+      </c>
+      <c r="S28">
+        <v>0.09083997054093554</v>
+      </c>
+      <c r="T28">
+        <v>0.1009543809346255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H29">
+        <v>412.820641</v>
+      </c>
+      <c r="I29">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J29">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N29">
+        <v>212.597199</v>
+      </c>
+      <c r="O29">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P29">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q29">
+        <v>9751.612440664951</v>
+      </c>
+      <c r="R29">
+        <v>87764.51196598457</v>
+      </c>
+      <c r="S29">
+        <v>0.1303359128140053</v>
+      </c>
+      <c r="T29">
+        <v>0.1448479266707578</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H30">
+        <v>412.820641</v>
+      </c>
+      <c r="I30">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J30">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.841336</v>
+      </c>
+      <c r="O30">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P30">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q30">
+        <v>84.46016753515289</v>
+      </c>
+      <c r="R30">
+        <v>760.141507816376</v>
+      </c>
+      <c r="S30">
+        <v>0.001128858750191197</v>
+      </c>
+      <c r="T30">
+        <v>0.001254549463298557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H31">
+        <v>412.820641</v>
+      </c>
+      <c r="I31">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J31">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.3859455</v>
+      </c>
+      <c r="N31">
+        <v>2.771891</v>
+      </c>
+      <c r="O31">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P31">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q31">
+        <v>190.7156365670218</v>
+      </c>
+      <c r="R31">
+        <v>1144.293819402131</v>
+      </c>
+      <c r="S31">
+        <v>0.002549024249180672</v>
+      </c>
+      <c r="T31">
+        <v>0.001888560461736533</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>30.755622</v>
+      </c>
+      <c r="H32">
+        <v>61.511244</v>
+      </c>
+      <c r="I32">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J32">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.317263</v>
+      </c>
+      <c r="N32">
+        <v>0.634526</v>
+      </c>
+      <c r="O32">
+        <v>0.002587741009497455</v>
+      </c>
+      <c r="P32">
+        <v>0.001733186563985812</v>
+      </c>
+      <c r="Q32">
+        <v>9.757620902586</v>
+      </c>
+      <c r="R32">
+        <v>39.030483610344</v>
+      </c>
+      <c r="S32">
+        <v>0.0001304162193657529</v>
+      </c>
+      <c r="T32">
+        <v>6.441652213717635E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>30.755622</v>
+      </c>
+      <c r="H33">
+        <v>61.511244</v>
+      </c>
+      <c r="I33">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J33">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.02842633333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.08527899999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.0002318580752130288</v>
+      </c>
+      <c r="P33">
+        <v>0.0002329367385893503</v>
+      </c>
+      <c r="Q33">
+        <v>0.8742695628459999</v>
+      </c>
+      <c r="R33">
+        <v>5.245617377075999</v>
+      </c>
+      <c r="S33">
+        <v>1.168511589364033E-05</v>
+      </c>
+      <c r="T33">
+        <v>8.657449168885532E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>30.755622</v>
+      </c>
+      <c r="H34">
+        <v>61.511244</v>
+      </c>
+      <c r="I34">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J34">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>49.39115366666666</v>
+      </c>
+      <c r="N34">
+        <v>148.173461</v>
+      </c>
+      <c r="O34">
+        <v>0.4028566641859401</v>
+      </c>
+      <c r="P34">
+        <v>0.4047308569616938</v>
+      </c>
+      <c r="Q34">
+        <v>1519.055652315914</v>
+      </c>
+      <c r="R34">
+        <v>9114.333913895482</v>
+      </c>
+      <c r="S34">
+        <v>0.02030305308630255</v>
+      </c>
+      <c r="T34">
+        <v>0.01504243960160582</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>30.755622</v>
+      </c>
+      <c r="H35">
+        <v>61.511244</v>
+      </c>
+      <c r="I35">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J35">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>70.86573300000001</v>
+      </c>
+      <c r="N35">
+        <v>212.597199</v>
+      </c>
+      <c r="O35">
+        <v>0.5780130789036135</v>
+      </c>
+      <c r="P35">
+        <v>0.5807021443531359</v>
+      </c>
+      <c r="Q35">
+        <v>2179.519696900926</v>
+      </c>
+      <c r="R35">
+        <v>13077.11818140556</v>
+      </c>
+      <c r="S35">
+        <v>0.02913053517253153</v>
+      </c>
+      <c r="T35">
+        <v>0.0215826808920126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H26">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I26">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J26">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="N26">
-        <v>1.3727573016189</v>
-      </c>
-      <c r="O26">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="P26">
-        <v>0.01187216359129066</v>
-      </c>
-      <c r="Q26">
-        <v>40.69270185557747</v>
-      </c>
-      <c r="R26">
-        <v>40.69270185557747</v>
-      </c>
-      <c r="S26">
-        <v>0.0005964412539738795</v>
-      </c>
-      <c r="T26">
-        <v>0.0005964412539738795</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>30.755622</v>
+      </c>
+      <c r="H36">
+        <v>61.511244</v>
+      </c>
+      <c r="I36">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J36">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6137786666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.841336</v>
+      </c>
+      <c r="O36">
+        <v>0.005006257352694774</v>
+      </c>
+      <c r="P36">
+        <v>0.005029547749002215</v>
+      </c>
+      <c r="Q36">
+        <v>18.877144663664</v>
+      </c>
+      <c r="R36">
+        <v>113.262867981984</v>
+      </c>
+      <c r="S36">
+        <v>0.0002523039031781812</v>
+      </c>
+      <c r="T36">
+        <v>0.0001869308132463914</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30.755622</v>
+      </c>
+      <c r="H37">
+        <v>61.511244</v>
+      </c>
+      <c r="I37">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J37">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.3859455</v>
+      </c>
+      <c r="N37">
+        <v>2.771891</v>
+      </c>
+      <c r="O37">
+        <v>0.01130440047304115</v>
+      </c>
+      <c r="P37">
+        <v>0.007571327633592945</v>
+      </c>
+      <c r="Q37">
+        <v>42.625615910601</v>
+      </c>
+      <c r="R37">
+        <v>170.502463642404</v>
+      </c>
+      <c r="S37">
+        <v>0.0005697158898358082</v>
+      </c>
+      <c r="T37">
+        <v>0.0002813999394246097</v>
       </c>
     </row>
   </sheetData>
